--- a/Brevet blanc/Resources/Type_dnb.xlsx
+++ b/Brevet blanc/Resources/Type_dnb.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Visual Studio 2017\Projects\Brevet blanc\Brevet blanc\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mes Documents\Visual Studio 2017\Projects\Brevet blanc\Brevet blanc\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Récapitulatif" sheetId="1" r:id="rId1"/>
@@ -214,12 +214,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color indexed="0"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
@@ -231,6 +225,12 @@
       <sz val="8"/>
       <color rgb="FF3A3A3A"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="0"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -484,7 +484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -523,7 +523,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -618,20 +618,25 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -948,7 +953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -7786,8 +7791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7830,283 +7835,283 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="52"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="52"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="50"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="50"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="52"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="50"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="52"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="50"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="52"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="52"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="50"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="52"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="52"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="52"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="52"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="50"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="52"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="50"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="50"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="52"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="50"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="52"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="50"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="52"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="50"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="52"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="50"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="52"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="52"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="50"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="52"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="50"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="52"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="50"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="52"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="50"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="52"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="50"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="52"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
@@ -8116,7 +8121,7 @@
       <c r="E30" s="51"/>
       <c r="F30" s="51"/>
       <c r="G30" s="51"/>
-      <c r="H30" s="52"/>
+      <c r="H30" s="53"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
@@ -8126,7 +8131,7 @@
       <c r="E31" s="51"/>
       <c r="F31" s="51"/>
       <c r="G31" s="51"/>
-      <c r="H31" s="52"/>
+      <c r="H31" s="53"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
@@ -8136,7 +8141,7 @@
       <c r="E32" s="51"/>
       <c r="F32" s="51"/>
       <c r="G32" s="51"/>
-      <c r="H32" s="52"/>
+      <c r="H32" s="53"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
@@ -8146,7 +8151,7 @@
       <c r="E33" s="51"/>
       <c r="F33" s="51"/>
       <c r="G33" s="51"/>
-      <c r="H33" s="52"/>
+      <c r="H33" s="53"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
@@ -8156,7 +8161,7 @@
       <c r="E34" s="51"/>
       <c r="F34" s="51"/>
       <c r="G34" s="51"/>
-      <c r="H34" s="52"/>
+      <c r="H34" s="53"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
@@ -8166,7 +8171,7 @@
       <c r="E35" s="51"/>
       <c r="F35" s="51"/>
       <c r="G35" s="51"/>
-      <c r="H35" s="52"/>
+      <c r="H35" s="53"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
@@ -8176,7 +8181,7 @@
       <c r="E36" s="51"/>
       <c r="F36" s="51"/>
       <c r="G36" s="51"/>
-      <c r="H36" s="52"/>
+      <c r="H36" s="53"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
@@ -8186,7 +8191,7 @@
       <c r="E37" s="51"/>
       <c r="F37" s="51"/>
       <c r="G37" s="51"/>
-      <c r="H37" s="52"/>
+      <c r="H37" s="53"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
@@ -8196,7 +8201,7 @@
       <c r="E38" s="51"/>
       <c r="F38" s="51"/>
       <c r="G38" s="51"/>
-      <c r="H38" s="52"/>
+      <c r="H38" s="53"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
@@ -8206,7 +8211,7 @@
       <c r="E39" s="51"/>
       <c r="F39" s="51"/>
       <c r="G39" s="51"/>
-      <c r="H39" s="52"/>
+      <c r="H39" s="53"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
@@ -8216,7 +8221,7 @@
       <c r="E40" s="51"/>
       <c r="F40" s="51"/>
       <c r="G40" s="51"/>
-      <c r="H40" s="52"/>
+      <c r="H40" s="53"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
@@ -8226,7 +8231,7 @@
       <c r="E41" s="51"/>
       <c r="F41" s="51"/>
       <c r="G41" s="51"/>
-      <c r="H41" s="52"/>
+      <c r="H41" s="53"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
@@ -8236,57 +8241,57 @@
       <c r="E42" s="51"/>
       <c r="F42" s="51"/>
       <c r="G42" s="51"/>
-      <c r="H42" s="52"/>
+      <c r="H42" s="53"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="18"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="52"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="50"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="52"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="50"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="49"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>

--- a/Brevet blanc/Resources/Type_dnb.xlsx
+++ b/Brevet blanc/Resources/Type_dnb.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mes Documents\Visual Studio 2017\Projects\Brevet blanc\Brevet blanc\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Visual Studio 2017\Projects\Brevet blanc\Brevet blanc\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Récapitulatif" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>Classe</t>
   </si>
@@ -184,6 +184,15 @@
   <si>
     <t>Techno
 (épreuve /20)</t>
+  </si>
+  <si>
+    <t>Barême</t>
+  </si>
+  <si>
+    <t>Barême/2</t>
+  </si>
+  <si>
+    <t>Barême notes</t>
   </si>
 </sst>
 </file>
@@ -484,7 +493,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -638,6 +647,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -951,13 +963,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP50"/>
+  <dimension ref="A1:AT50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AQ37" sqref="AQ37"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,10 +1001,11 @@
     <col min="30" max="30" width="12.28515625" style="30" customWidth="1"/>
     <col min="31" max="32" width="12.28515625" style="22" customWidth="1"/>
     <col min="33" max="33" width="24.42578125" style="4" customWidth="1"/>
+    <col min="34" max="34" width="11.42578125" style="1"/>
     <col min="35" max="42" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="1" customFormat="1" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" s="1" customFormat="1" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>23</v>
       </c>
@@ -1116,8 +1129,17 @@
       <c r="AP1" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AR1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT1" s="54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="5"/>
       <c r="C2" s="38"/>
@@ -1212,13 +1234,13 @@
         <f>K2+AC2</f>
         <v>0</v>
       </c>
-      <c r="AF2" s="23">
-        <f>ROUND(AE2/35,2)</f>
-        <v>0</v>
-      </c>
-      <c r="AG2" s="5" t="str">
-        <f>IF(AF2&gt;=16,"Admis mention TB",IF(AF2&gt;=14,"Admis mention B",IF(AF2&gt;=12,"Admis mention AB",IF(AF2&gt;=10,"Admis sans mention","Non admis pour "&amp;350-AE2&amp;" points"))))</f>
-        <v>Non admis pour 350 points</v>
+      <c r="AF2" s="23" t="e">
+        <f>ROUND(AE2/AR2*20,2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG2" s="5" t="e">
+        <f>IF(AF2&gt;=16,"Admis mention TB",IF(AF2&gt;=14,"Admis mention B",IF(AF2&gt;=12,"Admis mention AB",IF(AF2&gt;=10,"Admis sans mention","Non admis pour "&amp;AS2-AE2&amp;" points"))))</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI2" s="47" t="str">
         <f t="shared" ref="AI2" si="0">IF(C2=10,"Insuffisant",IF(C2=25,"Fragile",IF(C2=40,"Satisfaisant",IF(C2=50,"Très satisfaisant",IF(C2="","")))))</f>
@@ -1252,8 +1274,12 @@
         <f t="shared" ref="AP2" si="7">IF(J2=10,"Insuffisant",IF(J2=25,"Fragile",IF(J2=40,"Satisfaisant",IF(J2=50,"Très satisfaisant",IF(J2="","")))))</f>
         <v/>
       </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS2">
+        <f>(AR2)/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="5"/>
       <c r="C3" s="38"/>
@@ -1348,13 +1374,13 @@
         <f t="shared" ref="AE3:AE27" si="21">K3+AC3</f>
         <v>0</v>
       </c>
-      <c r="AF3" s="23">
-        <f t="shared" ref="AF3:AF29" si="22">ROUND(AE3/35,2)</f>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="5" t="str">
-        <f t="shared" ref="AG3:AG29" si="23">IF(AF3&gt;=16,"Admis mention TB",IF(AF3&gt;=14,"Admis mention B",IF(AF3&gt;=12,"Admis mention AB",IF(AF3&gt;=10,"Admis sans mention","Non admis pour "&amp;350-AE3&amp;" points"))))</f>
-        <v>Non admis pour 350 points</v>
+      <c r="AF3" s="23" t="e">
+        <f t="shared" ref="AF3:AF50" si="22">ROUND(AE3/AR3*20,2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG3" s="5" t="e">
+        <f t="shared" ref="AG3:AG50" si="23">IF(AF3&gt;=16,"Admis mention TB",IF(AF3&gt;=14,"Admis mention B",IF(AF3&gt;=12,"Admis mention AB",IF(AF3&gt;=10,"Admis sans mention","Non admis pour "&amp;AS3-AE3&amp;" points"))))</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI3" s="47" t="str">
         <f t="shared" ref="AI3:AI50" si="24">IF(C3=10,"Insuffisant",IF(C3=25,"Fragile",IF(C3=40,"Satisfaisant",IF(C3=50,"Très satisfaisant",IF(C3="","")))))</f>
@@ -1388,8 +1414,12 @@
         <f t="shared" ref="AP3:AP50" si="31">IF(J3=10,"Insuffisant",IF(J3=25,"Fragile",IF(J3=40,"Satisfaisant",IF(J3=50,"Très satisfaisant",IF(J3="","")))))</f>
         <v/>
       </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS3">
+        <f t="shared" ref="AS3:AS50" si="32">(AR3)/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="5"/>
       <c r="C4" s="38"/>
@@ -1484,13 +1514,13 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AF4" s="23">
+      <c r="AF4" s="23" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AG4" s="5" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG4" s="5" t="e">
         <f t="shared" si="23"/>
-        <v>Non admis pour 350 points</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI4" s="47" t="str">
         <f t="shared" si="24"/>
@@ -1524,8 +1554,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS4">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="5"/>
       <c r="C5" s="38"/>
@@ -1620,13 +1654,13 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AF5" s="23">
+      <c r="AF5" s="23" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AG5" s="5" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG5" s="5" t="e">
         <f t="shared" si="23"/>
-        <v>Non admis pour 350 points</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI5" s="47" t="str">
         <f t="shared" si="24"/>
@@ -1660,8 +1694,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS5">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="5"/>
       <c r="C6" s="38"/>
@@ -1756,13 +1794,13 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AF6" s="23">
+      <c r="AF6" s="23" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="5" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG6" s="5" t="e">
         <f t="shared" si="23"/>
-        <v>Non admis pour 350 points</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI6" s="47" t="str">
         <f t="shared" si="24"/>
@@ -1796,8 +1834,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS6">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="5"/>
       <c r="C7" s="38"/>
@@ -1892,13 +1934,13 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="23">
+      <c r="AF7" s="23" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AG7" s="5" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG7" s="5" t="e">
         <f t="shared" si="23"/>
-        <v>Non admis pour 350 points</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI7" s="47" t="str">
         <f t="shared" si="24"/>
@@ -1932,8 +1974,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS7">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="5"/>
       <c r="C8" s="38"/>
@@ -2028,13 +2074,13 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="23">
+      <c r="AF8" s="23" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AG8" s="5" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG8" s="5" t="e">
         <f t="shared" si="23"/>
-        <v>Non admis pour 350 points</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI8" s="47" t="str">
         <f t="shared" si="24"/>
@@ -2068,8 +2114,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS8">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="5"/>
       <c r="C9" s="38"/>
@@ -2164,13 +2214,13 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AF9" s="23">
+      <c r="AF9" s="23" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AG9" s="5" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG9" s="5" t="e">
         <f t="shared" si="23"/>
-        <v>Non admis pour 350 points</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI9" s="47" t="str">
         <f t="shared" si="24"/>
@@ -2204,8 +2254,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS9">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="5"/>
       <c r="C10" s="38"/>
@@ -2300,13 +2354,13 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AF10" s="23">
+      <c r="AF10" s="23" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AG10" s="5" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG10" s="5" t="e">
         <f t="shared" si="23"/>
-        <v>Non admis pour 350 points</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI10" s="47" t="str">
         <f t="shared" si="24"/>
@@ -2340,8 +2394,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS10">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="5"/>
       <c r="C11" s="38"/>
@@ -2436,13 +2494,13 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AF11" s="23">
+      <c r="AF11" s="23" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AG11" s="5" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG11" s="5" t="e">
         <f t="shared" si="23"/>
-        <v>Non admis pour 350 points</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI11" s="47" t="str">
         <f t="shared" si="24"/>
@@ -2476,8 +2534,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS11">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="5"/>
       <c r="C12" s="38"/>
@@ -2572,13 +2634,13 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AF12" s="23">
+      <c r="AF12" s="23" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AG12" s="5" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG12" s="5" t="e">
         <f t="shared" si="23"/>
-        <v>Non admis pour 350 points</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI12" s="47" t="str">
         <f t="shared" si="24"/>
@@ -2612,8 +2674,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS12">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="5"/>
       <c r="C13" s="38"/>
@@ -2708,13 +2774,13 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="23">
+      <c r="AF13" s="23" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AG13" s="5" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG13" s="5" t="e">
         <f t="shared" si="23"/>
-        <v>Non admis pour 350 points</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI13" s="47" t="str">
         <f t="shared" si="24"/>
@@ -2748,8 +2814,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS13">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="5"/>
       <c r="C14" s="38"/>
@@ -2844,13 +2914,13 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AF14" s="23">
+      <c r="AF14" s="23" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="5" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG14" s="5" t="e">
         <f t="shared" si="23"/>
-        <v>Non admis pour 350 points</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI14" s="47" t="str">
         <f t="shared" si="24"/>
@@ -2884,8 +2954,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS14">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="5"/>
       <c r="C15" s="38"/>
@@ -2980,13 +3054,13 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AF15" s="23">
+      <c r="AF15" s="23" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AG15" s="5" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG15" s="5" t="e">
         <f t="shared" si="23"/>
-        <v>Non admis pour 350 points</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI15" s="47" t="str">
         <f t="shared" si="24"/>
@@ -3020,8 +3094,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS15">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="5"/>
       <c r="C16" s="38"/>
@@ -3116,13 +3194,13 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AF16" s="23">
+      <c r="AF16" s="23" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="5" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG16" s="5" t="e">
         <f t="shared" si="23"/>
-        <v>Non admis pour 350 points</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI16" s="47" t="str">
         <f t="shared" si="24"/>
@@ -3156,8 +3234,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="5"/>
       <c r="C17" s="38"/>
@@ -3252,13 +3334,13 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AF17" s="23">
+      <c r="AF17" s="23" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AG17" s="5" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG17" s="5" t="e">
         <f t="shared" si="23"/>
-        <v>Non admis pour 350 points</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI17" s="47" t="str">
         <f t="shared" si="24"/>
@@ -3292,8 +3374,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS17">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="5"/>
       <c r="C18" s="38"/>
@@ -3388,13 +3474,13 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AF18" s="23">
+      <c r="AF18" s="23" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AG18" s="5" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG18" s="5" t="e">
         <f t="shared" si="23"/>
-        <v>Non admis pour 350 points</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI18" s="47" t="str">
         <f t="shared" si="24"/>
@@ -3428,8 +3514,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS18">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="5"/>
       <c r="C19" s="38"/>
@@ -3524,13 +3614,13 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AF19" s="23">
+      <c r="AF19" s="23" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AG19" s="5" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG19" s="5" t="e">
         <f t="shared" si="23"/>
-        <v>Non admis pour 350 points</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI19" s="47" t="str">
         <f t="shared" si="24"/>
@@ -3564,8 +3654,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS19">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="5"/>
       <c r="C20" s="38"/>
@@ -3660,13 +3754,13 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AF20" s="23">
+      <c r="AF20" s="23" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AG20" s="5" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG20" s="5" t="e">
         <f t="shared" si="23"/>
-        <v>Non admis pour 350 points</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI20" s="47" t="str">
         <f t="shared" si="24"/>
@@ -3700,8 +3794,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS20">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="5"/>
       <c r="C21" s="38"/>
@@ -3796,13 +3894,13 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AF21" s="23">
+      <c r="AF21" s="23" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AG21" s="5" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG21" s="5" t="e">
         <f t="shared" si="23"/>
-        <v>Non admis pour 350 points</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI21" s="47" t="str">
         <f t="shared" si="24"/>
@@ -3836,8 +3934,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS21">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="5"/>
       <c r="C22" s="38"/>
@@ -3932,13 +4034,13 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AF22" s="23">
+      <c r="AF22" s="23" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AG22" s="5" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG22" s="5" t="e">
         <f t="shared" si="23"/>
-        <v>Non admis pour 350 points</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI22" s="47" t="str">
         <f t="shared" si="24"/>
@@ -3972,8 +4074,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS22">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="5"/>
       <c r="C23" s="38"/>
@@ -4068,13 +4174,13 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AF23" s="23">
+      <c r="AF23" s="23" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AG23" s="5" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG23" s="5" t="e">
         <f t="shared" si="23"/>
-        <v>Non admis pour 350 points</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI23" s="47" t="str">
         <f t="shared" si="24"/>
@@ -4108,8 +4214,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS23">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="5"/>
       <c r="C24" s="38"/>
@@ -4204,13 +4314,13 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AF24" s="23">
+      <c r="AF24" s="23" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AG24" s="5" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG24" s="5" t="e">
         <f t="shared" si="23"/>
-        <v>Non admis pour 350 points</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI24" s="47" t="str">
         <f t="shared" si="24"/>
@@ -4244,8 +4354,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS24">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="5"/>
       <c r="C25" s="38"/>
@@ -4340,13 +4454,13 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AF25" s="23">
+      <c r="AF25" s="23" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AG25" s="5" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG25" s="5" t="e">
         <f t="shared" si="23"/>
-        <v>Non admis pour 350 points</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI25" s="47" t="str">
         <f t="shared" si="24"/>
@@ -4380,8 +4494,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS25">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="5"/>
       <c r="C26" s="38"/>
@@ -4476,13 +4594,13 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AF26" s="23">
+      <c r="AF26" s="23" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AG26" s="5" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG26" s="5" t="e">
         <f t="shared" si="23"/>
-        <v>Non admis pour 350 points</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI26" s="47" t="str">
         <f t="shared" si="24"/>
@@ -4516,8 +4634,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS26">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="5"/>
       <c r="C27" s="38"/>
@@ -4612,13 +4734,13 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AF27" s="23">
+      <c r="AF27" s="23" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AG27" s="5" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG27" s="5" t="e">
         <f t="shared" si="23"/>
-        <v>Non admis pour 350 points</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI27" s="47" t="str">
         <f t="shared" si="24"/>
@@ -4652,8 +4774,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS27">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="5"/>
       <c r="C28" s="38"/>
@@ -4665,11 +4791,11 @@
       <c r="I28" s="38"/>
       <c r="J28" s="38"/>
       <c r="K28" s="41">
-        <f t="shared" ref="K28:K29" si="32">C28+D28+E28+F28+G28+H28+I28+J28</f>
+        <f t="shared" ref="K28:K29" si="33">C28+D28+E28+F28+G28+H28+I28+J28</f>
         <v>0</v>
       </c>
       <c r="L28" s="42">
-        <f t="shared" ref="L28:L29" si="33">K28/20</f>
+        <f t="shared" ref="L28:L29" si="34">K28/20</f>
         <v>0</v>
       </c>
       <c r="M28" s="21">
@@ -4745,16 +4871,16 @@
         <v>0</v>
       </c>
       <c r="AE28" s="32">
-        <f t="shared" ref="AE28:AE29" si="34">K28+AC28</f>
-        <v>0</v>
-      </c>
-      <c r="AF28" s="23">
+        <f t="shared" ref="AE28:AE29" si="35">K28+AC28</f>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="23" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AG28" s="5" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG28" s="5" t="e">
         <f t="shared" si="23"/>
-        <v>Non admis pour 350 points</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI28" s="47" t="str">
         <f t="shared" si="24"/>
@@ -4788,8 +4914,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS28">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="5"/>
       <c r="C29" s="38"/>
@@ -4801,11 +4931,11 @@
       <c r="I29" s="38"/>
       <c r="J29" s="38"/>
       <c r="K29" s="41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="L29" s="42">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M29" s="21">
@@ -4881,16 +5011,16 @@
         <v>0</v>
       </c>
       <c r="AE29" s="32">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AF29" s="23">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="23" t="e">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AG29" s="5" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG29" s="5" t="e">
         <f t="shared" si="23"/>
-        <v>Non admis pour 350 points</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI29" s="47" t="str">
         <f t="shared" si="24"/>
@@ -4924,8 +5054,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS29">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="5"/>
       <c r="C30" s="38"/>
@@ -4937,11 +5071,11 @@
       <c r="I30" s="38"/>
       <c r="J30" s="38"/>
       <c r="K30" s="41">
-        <f t="shared" ref="K30:K50" si="35">C30+D30+E30+F30+G30+H30+I30+J30</f>
+        <f t="shared" ref="K30:K50" si="36">C30+D30+E30+F30+G30+H30+I30+J30</f>
         <v>0</v>
       </c>
       <c r="L30" s="42">
-        <f t="shared" ref="L30:L50" si="36">K30/20</f>
+        <f t="shared" ref="L30:L50" si="37">K30/20</f>
         <v>0</v>
       </c>
       <c r="M30" s="21">
@@ -5017,16 +5151,16 @@
         <v>0</v>
       </c>
       <c r="AE30" s="32">
-        <f t="shared" ref="AE30:AE50" si="37">K30+AC30</f>
-        <v>0</v>
-      </c>
-      <c r="AF30" s="23">
-        <f t="shared" ref="AF30:AF50" si="38">ROUND(AE30/35,2)</f>
-        <v>0</v>
-      </c>
-      <c r="AG30" s="5" t="str">
-        <f t="shared" ref="AG30:AG50" si="39">IF(AF30&gt;=16,"Admis mention TB",IF(AF30&gt;=14,"Admis mention B",IF(AF30&gt;=12,"Admis mention AB",IF(AF30&gt;=10,"Admis sans mention","Non admis pour "&amp;350-AE30&amp;" points"))))</f>
-        <v>Non admis pour 350 points</v>
+        <f t="shared" ref="AE30:AE50" si="38">K30+AC30</f>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="23" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG30" s="5" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI30" s="47" t="str">
         <f t="shared" si="24"/>
@@ -5060,8 +5194,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS30">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="5"/>
       <c r="C31" s="38"/>
@@ -5073,11 +5211,11 @@
       <c r="I31" s="38"/>
       <c r="J31" s="38"/>
       <c r="K31" s="41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L31" s="42">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M31" s="21">
@@ -5153,16 +5291,16 @@
         <v>0</v>
       </c>
       <c r="AE31" s="32">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AF31" s="23">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AG31" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>Non admis pour 350 points</v>
+      <c r="AF31" s="23" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG31" s="5" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI31" s="47" t="str">
         <f t="shared" si="24"/>
@@ -5196,8 +5334,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS31">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="5"/>
       <c r="C32" s="38"/>
@@ -5209,11 +5351,11 @@
       <c r="I32" s="38"/>
       <c r="J32" s="38"/>
       <c r="K32" s="41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L32" s="42">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M32" s="21">
@@ -5289,16 +5431,16 @@
         <v>0</v>
       </c>
       <c r="AE32" s="32">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AF32" s="23">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AG32" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>Non admis pour 350 points</v>
+      <c r="AF32" s="23" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG32" s="5" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI32" s="47" t="str">
         <f t="shared" si="24"/>
@@ -5332,8 +5474,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS32">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="5"/>
       <c r="C33" s="38"/>
@@ -5345,11 +5491,11 @@
       <c r="I33" s="38"/>
       <c r="J33" s="38"/>
       <c r="K33" s="41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L33" s="42">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M33" s="21">
@@ -5425,16 +5571,16 @@
         <v>0</v>
       </c>
       <c r="AE33" s="32">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AF33" s="23">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AG33" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>Non admis pour 350 points</v>
+      <c r="AF33" s="23" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG33" s="5" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI33" s="47" t="str">
         <f t="shared" si="24"/>
@@ -5468,8 +5614,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS33">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="5"/>
       <c r="C34" s="38"/>
@@ -5481,11 +5631,11 @@
       <c r="I34" s="38"/>
       <c r="J34" s="38"/>
       <c r="K34" s="41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L34" s="42">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M34" s="21">
@@ -5561,16 +5711,16 @@
         <v>0</v>
       </c>
       <c r="AE34" s="32">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AF34" s="23">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AG34" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>Non admis pour 350 points</v>
+      <c r="AF34" s="23" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG34" s="5" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI34" s="47" t="str">
         <f t="shared" si="24"/>
@@ -5604,8 +5754,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS34">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="5"/>
       <c r="C35" s="38"/>
@@ -5617,11 +5771,11 @@
       <c r="I35" s="38"/>
       <c r="J35" s="38"/>
       <c r="K35" s="41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L35" s="42">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M35" s="21">
@@ -5697,16 +5851,16 @@
         <v>0</v>
       </c>
       <c r="AE35" s="32">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AF35" s="23">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AG35" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>Non admis pour 350 points</v>
+      <c r="AF35" s="23" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG35" s="5" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI35" s="47" t="str">
         <f t="shared" si="24"/>
@@ -5740,8 +5894,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="5"/>
       <c r="C36" s="38"/>
@@ -5753,11 +5911,11 @@
       <c r="I36" s="38"/>
       <c r="J36" s="38"/>
       <c r="K36" s="41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L36" s="42">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M36" s="21">
@@ -5833,16 +5991,16 @@
         <v>0</v>
       </c>
       <c r="AE36" s="32">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AF36" s="23">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AG36" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>Non admis pour 350 points</v>
+      <c r="AF36" s="23" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG36" s="5" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI36" s="47" t="str">
         <f t="shared" si="24"/>
@@ -5876,8 +6034,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS36">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="5"/>
       <c r="C37" s="38"/>
@@ -5889,11 +6051,11 @@
       <c r="I37" s="38"/>
       <c r="J37" s="38"/>
       <c r="K37" s="41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L37" s="42">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M37" s="21">
@@ -5969,16 +6131,16 @@
         <v>0</v>
       </c>
       <c r="AE37" s="32">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AF37" s="23">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AG37" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>Non admis pour 350 points</v>
+      <c r="AF37" s="23" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG37" s="5" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI37" s="47" t="str">
         <f t="shared" si="24"/>
@@ -6012,8 +6174,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS37">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="5"/>
       <c r="C38" s="38"/>
@@ -6025,11 +6191,11 @@
       <c r="I38" s="38"/>
       <c r="J38" s="38"/>
       <c r="K38" s="41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L38" s="42">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M38" s="21">
@@ -6105,16 +6271,16 @@
         <v>0</v>
       </c>
       <c r="AE38" s="32">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AF38" s="23">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AG38" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>Non admis pour 350 points</v>
+      <c r="AF38" s="23" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG38" s="5" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI38" s="47" t="str">
         <f t="shared" si="24"/>
@@ -6148,8 +6314,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS38">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="5"/>
       <c r="C39" s="38"/>
@@ -6161,11 +6331,11 @@
       <c r="I39" s="38"/>
       <c r="J39" s="38"/>
       <c r="K39" s="41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L39" s="42">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M39" s="21">
@@ -6241,16 +6411,16 @@
         <v>0</v>
       </c>
       <c r="AE39" s="32">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AF39" s="23">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AG39" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>Non admis pour 350 points</v>
+      <c r="AF39" s="23" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG39" s="5" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI39" s="47" t="str">
         <f t="shared" si="24"/>
@@ -6284,8 +6454,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS39">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="5"/>
       <c r="C40" s="38"/>
@@ -6297,11 +6471,11 @@
       <c r="I40" s="38"/>
       <c r="J40" s="38"/>
       <c r="K40" s="41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L40" s="42">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M40" s="21">
@@ -6377,16 +6551,16 @@
         <v>0</v>
       </c>
       <c r="AE40" s="32">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AF40" s="23">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AG40" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>Non admis pour 350 points</v>
+      <c r="AF40" s="23" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG40" s="5" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI40" s="47" t="str">
         <f t="shared" si="24"/>
@@ -6420,8 +6594,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS40">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="5"/>
       <c r="C41" s="38"/>
@@ -6433,11 +6611,11 @@
       <c r="I41" s="38"/>
       <c r="J41" s="38"/>
       <c r="K41" s="41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L41" s="42">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M41" s="21">
@@ -6513,16 +6691,16 @@
         <v>0</v>
       </c>
       <c r="AE41" s="32">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AF41" s="23">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AG41" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>Non admis pour 350 points</v>
+      <c r="AF41" s="23" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG41" s="5" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI41" s="47" t="str">
         <f t="shared" si="24"/>
@@ -6556,8 +6734,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS41">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="5"/>
       <c r="C42" s="38"/>
@@ -6569,11 +6751,11 @@
       <c r="I42" s="38"/>
       <c r="J42" s="38"/>
       <c r="K42" s="41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L42" s="42">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M42" s="21">
@@ -6649,16 +6831,16 @@
         <v>0</v>
       </c>
       <c r="AE42" s="32">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AF42" s="23">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AG42" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>Non admis pour 350 points</v>
+      <c r="AF42" s="23" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG42" s="5" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI42" s="47" t="str">
         <f t="shared" si="24"/>
@@ -6692,8 +6874,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS42">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="5"/>
       <c r="C43" s="38"/>
@@ -6705,11 +6891,11 @@
       <c r="I43" s="38"/>
       <c r="J43" s="38"/>
       <c r="K43" s="41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L43" s="42">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M43" s="21">
@@ -6785,16 +6971,16 @@
         <v>0</v>
       </c>
       <c r="AE43" s="32">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AF43" s="23">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AG43" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>Non admis pour 350 points</v>
+      <c r="AF43" s="23" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG43" s="5" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI43" s="47" t="str">
         <f t="shared" si="24"/>
@@ -6828,8 +7014,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS43">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="5"/>
       <c r="C44" s="38"/>
@@ -6841,11 +7031,11 @@
       <c r="I44" s="38"/>
       <c r="J44" s="38"/>
       <c r="K44" s="41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L44" s="42">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M44" s="21">
@@ -6873,7 +7063,7 @@
         <v>0</v>
       </c>
       <c r="S44" s="23">
-        <f t="shared" ref="S44:S50" si="40">M44+O44+Q44</f>
+        <f t="shared" ref="S44:S50" si="39">M44+O44+Q44</f>
         <v>0</v>
       </c>
       <c r="T44" s="23">
@@ -6909,11 +7099,11 @@
         <v>0</v>
       </c>
       <c r="AB44" s="23">
-        <f t="shared" ref="AB44:AB50" si="41">T44+V44+X44+Z44</f>
+        <f t="shared" ref="AB44:AB50" si="40">T44+V44+X44+Z44</f>
         <v>0</v>
       </c>
       <c r="AC44" s="23">
-        <f t="shared" ref="AC44:AC50" si="42">S44+AB44</f>
+        <f t="shared" ref="AC44:AC50" si="41">S44+AB44</f>
         <v>0</v>
       </c>
       <c r="AD44" s="29">
@@ -6921,16 +7111,16 @@
         <v>0</v>
       </c>
       <c r="AE44" s="32">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AF44" s="23">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AG44" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>Non admis pour 350 points</v>
+      <c r="AF44" s="23" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG44" s="5" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI44" s="47" t="str">
         <f t="shared" si="24"/>
@@ -6964,8 +7154,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS44">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="5"/>
       <c r="C45" s="38"/>
@@ -6977,11 +7171,11 @@
       <c r="I45" s="38"/>
       <c r="J45" s="38"/>
       <c r="K45" s="41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L45" s="42">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M45" s="21">
@@ -7009,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="S45" s="23">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="T45" s="23">
@@ -7045,11 +7239,11 @@
         <v>0</v>
       </c>
       <c r="AB45" s="23">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AC45" s="23">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AC45" s="23">
-        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AD45" s="29">
@@ -7057,16 +7251,16 @@
         <v>0</v>
       </c>
       <c r="AE45" s="32">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AF45" s="23">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AG45" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>Non admis pour 350 points</v>
+      <c r="AF45" s="23" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG45" s="5" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI45" s="47" t="str">
         <f t="shared" si="24"/>
@@ -7100,8 +7294,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS45">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="5"/>
       <c r="C46" s="38"/>
@@ -7113,11 +7311,11 @@
       <c r="I46" s="38"/>
       <c r="J46" s="38"/>
       <c r="K46" s="41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L46" s="42">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M46" s="21">
@@ -7145,7 +7343,7 @@
         <v>0</v>
       </c>
       <c r="S46" s="23">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="T46" s="23">
@@ -7181,11 +7379,11 @@
         <v>0</v>
       </c>
       <c r="AB46" s="23">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AC46" s="23">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AC46" s="23">
-        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AD46" s="29">
@@ -7193,16 +7391,16 @@
         <v>0</v>
       </c>
       <c r="AE46" s="32">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AF46" s="23">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AG46" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>Non admis pour 350 points</v>
+      <c r="AF46" s="23" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG46" s="5" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI46" s="47" t="str">
         <f t="shared" si="24"/>
@@ -7236,8 +7434,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS46">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="5"/>
       <c r="C47" s="38"/>
@@ -7249,11 +7451,11 @@
       <c r="I47" s="38"/>
       <c r="J47" s="38"/>
       <c r="K47" s="41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L47" s="42">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M47" s="21">
@@ -7281,7 +7483,7 @@
         <v>0</v>
       </c>
       <c r="S47" s="23">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="T47" s="23">
@@ -7317,11 +7519,11 @@
         <v>0</v>
       </c>
       <c r="AB47" s="23">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AC47" s="23">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AC47" s="23">
-        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AD47" s="29">
@@ -7329,16 +7531,16 @@
         <v>0</v>
       </c>
       <c r="AE47" s="32">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AF47" s="23">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AG47" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>Non admis pour 350 points</v>
+      <c r="AF47" s="23" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG47" s="5" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI47" s="47" t="str">
         <f t="shared" si="24"/>
@@ -7372,8 +7574,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS47">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="5"/>
       <c r="C48" s="38"/>
@@ -7385,11 +7591,11 @@
       <c r="I48" s="38"/>
       <c r="J48" s="38"/>
       <c r="K48" s="41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L48" s="42">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M48" s="21">
@@ -7417,7 +7623,7 @@
         <v>0</v>
       </c>
       <c r="S48" s="23">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="T48" s="23">
@@ -7453,11 +7659,11 @@
         <v>0</v>
       </c>
       <c r="AB48" s="23">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AC48" s="23">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AC48" s="23">
-        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AD48" s="29">
@@ -7465,16 +7671,16 @@
         <v>0</v>
       </c>
       <c r="AE48" s="32">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AF48" s="23">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AG48" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>Non admis pour 350 points</v>
+      <c r="AF48" s="23" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG48" s="5" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI48" s="47" t="str">
         <f t="shared" si="24"/>
@@ -7508,8 +7714,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS48">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="5"/>
       <c r="C49" s="38"/>
@@ -7521,11 +7731,11 @@
       <c r="I49" s="38"/>
       <c r="J49" s="38"/>
       <c r="K49" s="41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L49" s="42">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M49" s="21">
@@ -7553,7 +7763,7 @@
         <v>0</v>
       </c>
       <c r="S49" s="23">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="T49" s="23">
@@ -7589,11 +7799,11 @@
         <v>0</v>
       </c>
       <c r="AB49" s="23">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AC49" s="23">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AC49" s="23">
-        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AD49" s="29">
@@ -7601,16 +7811,16 @@
         <v>0</v>
       </c>
       <c r="AE49" s="32">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AF49" s="23">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AG49" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>Non admis pour 350 points</v>
+      <c r="AF49" s="23" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG49" s="5" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI49" s="47" t="str">
         <f t="shared" si="24"/>
@@ -7644,8 +7854,12 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-    </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AS49">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="5"/>
       <c r="C50" s="38"/>
@@ -7657,11 +7871,11 @@
       <c r="I50" s="38"/>
       <c r="J50" s="38"/>
       <c r="K50" s="41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L50" s="42">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M50" s="21">
@@ -7689,7 +7903,7 @@
         <v>0</v>
       </c>
       <c r="S50" s="23">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="T50" s="23">
@@ -7725,11 +7939,11 @@
         <v>0</v>
       </c>
       <c r="AB50" s="23">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AC50" s="23">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AC50" s="23">
-        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AD50" s="29">
@@ -7737,16 +7951,16 @@
         <v>0</v>
       </c>
       <c r="AE50" s="32">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AF50" s="23">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AG50" s="5" t="str">
-        <f t="shared" si="39"/>
-        <v>Non admis pour 350 points</v>
+      <c r="AF50" s="23" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG50" s="5" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI50" s="47" t="str">
         <f t="shared" si="24"/>
@@ -7779,6 +7993,10 @@
       <c r="AP50" s="47" t="str">
         <f t="shared" si="31"/>
         <v/>
+      </c>
+      <c r="AS50">
+        <f t="shared" si="32"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7791,7 +8009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>

--- a/Brevet blanc/Resources/Type_dnb.xlsx
+++ b/Brevet blanc/Resources/Type_dnb.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Classe</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>Barême notes</t>
+  </si>
+  <si>
+    <t>Brevet précédent</t>
   </si>
 </sst>
 </file>
@@ -963,13 +966,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT50"/>
+  <dimension ref="A1:AU50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AU10" sqref="AU10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,11 +985,11 @@
     <col min="11" max="11" width="12.28515625" style="43" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" style="45" customWidth="1"/>
     <col min="13" max="13" width="11.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="12.28515625" style="22" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="12.28515625" style="48" customWidth="1"/>
-    <col min="18" max="18" width="5.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="5.140625" style="1" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="12.28515625" style="24" customWidth="1"/>
     <col min="20" max="20" width="12.28515625" style="22" customWidth="1"/>
     <col min="21" max="21" width="3.7109375" style="1" hidden="1" customWidth="1"/>
@@ -1005,7 +1008,7 @@
     <col min="35" max="42" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="1" customFormat="1" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" s="1" customFormat="1" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>23</v>
       </c>
@@ -1138,8 +1141,11 @@
       <c r="AT1" s="54" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU1" s="54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="5"/>
       <c r="C2" s="38"/>
@@ -1279,7 +1285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="5"/>
       <c r="C3" s="38"/>
@@ -1419,7 +1425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="5"/>
       <c r="C4" s="38"/>
@@ -1559,7 +1565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="5"/>
       <c r="C5" s="38"/>
@@ -1699,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="5"/>
       <c r="C6" s="38"/>
@@ -1839,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="5"/>
       <c r="C7" s="38"/>
@@ -1979,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="5"/>
       <c r="C8" s="38"/>
@@ -2119,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="5"/>
       <c r="C9" s="38"/>
@@ -2259,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="5"/>
       <c r="C10" s="38"/>
@@ -2399,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="5"/>
       <c r="C11" s="38"/>
@@ -2539,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="5"/>
       <c r="C12" s="38"/>
@@ -2679,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="5"/>
       <c r="C13" s="38"/>
@@ -2819,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="5"/>
       <c r="C14" s="38"/>
@@ -2959,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="5"/>
       <c r="C15" s="38"/>
@@ -3099,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="5"/>
       <c r="C16" s="38"/>
